--- a/doc/ExampleDesign/AWFExampleDesign/RadarChart_PoJen_20231214.xlsx
+++ b/doc/ExampleDesign/AWFExampleDesign/RadarChart_PoJen_20231214.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cshih/notes/Projects/Tier4/AWF/RefDesignWG/doc/ExampleDesign/AWFExampleDesign/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/EnvoyPro4T/cshih/notes/Projects/Tier4/AWF/ReferenceDesignWG/RefDesignWG/doc/ExampleDesign/AWFExampleDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9CDA72-D683-E847-8638-3E2AEF7539B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254311A7-D7DB-1547-9CD0-318FAE87A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31040" yWindow="28800" windowWidth="19200" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="11840" yWindow="28800" windowWidth="19200" windowHeight="21600" activeTab="1" xr2:uid="{7A69800E-4D94-1A4F-94DB-C8DAE30CE0F7}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="67820" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="68800" windowHeight="28300" activeTab="1" xr2:uid="{7A69800E-4D94-1A4F-94DB-C8DAE30CE0F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Radar Chart for Ref. Design" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="177">
   <si>
     <t>Radar Chart for Auotware Reference Design</t>
   </si>
@@ -911,9 +911,6 @@
   </si>
   <si>
     <t>Openness (0-5)</t>
-  </si>
-  <si>
-    <t>ODD (Unordered)</t>
   </si>
   <si>
     <t>Maturity (0-5)</t>
@@ -1448,28 +1445,33 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1885,12 +1887,6 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1975,6 +1971,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1983,12 +1991,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2117,13 +2119,13 @@
                   <c:v>Openness (0-5)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ODD (Unordered)</c:v>
+                  <c:v>Maturity (0-5)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Maturity (0-5)</c:v>
+                  <c:v>Vehicle Size (0-5)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Vehicle Size (0-5)</c:v>
+                  <c:v>Supportability (0-5)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Hardware Requirement (0-5)</c:v>
@@ -2212,13 +2214,13 @@
                   <c:v>Openness (0-5)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ODD (Unordered)</c:v>
+                  <c:v>Maturity (0-5)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Maturity (0-5)</c:v>
+                  <c:v>Vehicle Size (0-5)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Vehicle Size (0-5)</c:v>
+                  <c:v>Supportability (0-5)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Hardware Requirement (0-5)</c:v>
@@ -5544,7 +5546,7 @@
   <dimension ref="B1:Y999"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -5585,15 +5587,15 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5713,7 +5715,7 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="2:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="10">
@@ -5747,8 +5749,8 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="2:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
+      <c r="B7" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="C7" s="8">
         <v>4</v>
@@ -5781,8 +5783,8 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="s">
-        <v>9</v>
+      <c r="B8" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="8">
         <v>4</v>
@@ -5816,7 +5818,7 @@
     </row>
     <row r="9" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10">
         <v>5</v>
@@ -5850,7 +5852,7 @@
     </row>
     <row r="10" spans="2:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -5884,7 +5886,7 @@
     </row>
     <row r="11" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10">
         <v>4</v>
@@ -12170,18 +12172,18 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -12206,18 +12208,18 @@
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>17</v>
+      <c r="C3" s="33" t="s">
+        <v>16</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="34">
+      <c r="D3" s="34"/>
+      <c r="E3" s="32">
         <v>0</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>18</v>
+      <c r="F3" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -12242,18 +12244,18 @@
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>19</v>
+      <c r="C4" s="33" t="s">
+        <v>18</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="34">
+      <c r="D4" s="34"/>
+      <c r="E4" s="32">
         <v>1</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>20</v>
+      <c r="F4" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -12278,18 +12280,18 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>21</v>
+      <c r="C5" s="33" t="s">
+        <v>20</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="34">
+      <c r="D5" s="34"/>
+      <c r="E5" s="32">
         <v>2</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>22</v>
+      <c r="F5" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -12314,18 +12316,18 @@
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>23</v>
+      <c r="C6" s="33" t="s">
+        <v>22</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34">
+      <c r="D6" s="34"/>
+      <c r="E6" s="32">
         <v>3</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>24</v>
+      <c r="F6" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -12350,18 +12352,18 @@
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>4</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>25</v>
+      <c r="C7" s="33" t="s">
+        <v>24</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="34">
+      <c r="D7" s="34"/>
+      <c r="E7" s="32">
         <v>4</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>26</v>
+      <c r="F7" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -12386,18 +12388,18 @@
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
-      <c r="B8" s="38">
+      <c r="B8" s="36">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>27</v>
+      <c r="C8" s="37" t="s">
+        <v>26</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="38">
+      <c r="D8" s="34"/>
+      <c r="E8" s="36">
         <v>5</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>28</v>
+      <c r="F8" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -12422,11 +12424,11 @@
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -12450,18 +12452,18 @@
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="42" t="s">
+      <c r="F10" s="41" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>31</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -12486,18 +12488,18 @@
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
-      <c r="B11" s="34">
+      <c r="B11" s="32">
         <v>0</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>32</v>
+      <c r="C11" s="33" t="s">
+        <v>31</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34">
+      <c r="D11" s="34"/>
+      <c r="E11" s="32">
         <v>0</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>33</v>
+      <c r="F11" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -12522,18 +12524,18 @@
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
-      <c r="B12" s="34">
+      <c r="B12" s="32">
         <v>1</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>34</v>
+      <c r="C12" s="33" t="s">
+        <v>33</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="34">
+      <c r="D12" s="34"/>
+      <c r="E12" s="32">
         <v>1</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>35</v>
+      <c r="F12" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -12558,18 +12560,18 @@
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
-      <c r="B13" s="34">
+      <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>36</v>
+      <c r="C13" s="34" t="s">
+        <v>35</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="34">
+      <c r="D13" s="34"/>
+      <c r="E13" s="32">
         <v>2</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>35</v>
+      <c r="F13" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -12594,18 +12596,18 @@
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
-      <c r="B14" s="34">
+      <c r="B14" s="32">
         <v>3</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>37</v>
+      <c r="C14" s="33" t="s">
+        <v>36</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="34">
+      <c r="D14" s="34"/>
+      <c r="E14" s="32">
         <v>3</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>38</v>
+      <c r="F14" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -12630,18 +12632,18 @@
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
-      <c r="B15" s="34">
+      <c r="B15" s="32">
         <v>4</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>39</v>
+      <c r="C15" s="33" t="s">
+        <v>38</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="34">
+      <c r="D15" s="34"/>
+      <c r="E15" s="32">
         <v>4</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>40</v>
+      <c r="F15" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -12666,18 +12668,18 @@
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
-      <c r="B16" s="38">
+      <c r="B16" s="36">
         <v>5</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>41</v>
+      <c r="C16" s="37" t="s">
+        <v>40</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="38">
+      <c r="D16" s="34"/>
+      <c r="E16" s="36">
         <v>5</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>42</v>
+      <c r="F16" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -12702,11 +12704,11 @@
     </row>
     <row r="17" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -12730,18 +12732,18 @@
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="44" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>45</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -12766,18 +12768,18 @@
     </row>
     <row r="19" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
-      <c r="B19" s="34">
+      <c r="B19" s="32">
         <v>0</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>46</v>
+      <c r="C19" s="33" t="s">
+        <v>45</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="34">
+      <c r="D19" s="34"/>
+      <c r="E19" s="32">
         <v>0</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>47</v>
+      <c r="F19" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -12802,18 +12804,18 @@
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
-      <c r="B20" s="34">
+      <c r="B20" s="32">
         <v>1</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>48</v>
+      <c r="C20" s="33" t="s">
+        <v>47</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="34">
+      <c r="D20" s="34"/>
+      <c r="E20" s="32">
         <v>1</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>49</v>
+      <c r="F20" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -12838,18 +12840,18 @@
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
-      <c r="B21" s="34">
+      <c r="B21" s="32">
         <v>2</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>50</v>
+      <c r="C21" s="33" t="s">
+        <v>49</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="34">
+      <c r="D21" s="34"/>
+      <c r="E21" s="32">
         <v>2</v>
       </c>
-      <c r="F21" s="44" t="s">
-        <v>51</v>
+      <c r="F21" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -12874,18 +12876,18 @@
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
-      <c r="B22" s="34">
+      <c r="B22" s="32">
         <v>3</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>52</v>
+      <c r="C22" s="33" t="s">
+        <v>51</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="34">
+      <c r="D22" s="34"/>
+      <c r="E22" s="32">
         <v>3</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>53</v>
+      <c r="F22" s="42" t="s">
+        <v>52</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -12910,18 +12912,18 @@
     </row>
     <row r="23" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
-      <c r="B23" s="34">
+      <c r="B23" s="32">
         <v>4</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>54</v>
+      <c r="C23" s="33" t="s">
+        <v>53</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="34">
+      <c r="D23" s="34"/>
+      <c r="E23" s="32">
         <v>4</v>
       </c>
-      <c r="F23" s="47" t="s">
-        <v>55</v>
+      <c r="F23" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -12946,18 +12948,18 @@
     </row>
     <row r="24" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
-      <c r="B24" s="38">
+      <c r="B24" s="36">
         <v>5</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>56</v>
+      <c r="C24" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="38">
+      <c r="D24" s="34"/>
+      <c r="E24" s="36">
         <v>5</v>
       </c>
-      <c r="F24" s="45" t="s">
-        <v>57</v>
+      <c r="F24" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -12982,11 +12984,11 @@
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -13010,18 +13012,18 @@
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="42" t="s">
+      <c r="F26" s="46" t="s">
         <v>60</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>61</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -13046,18 +13048,18 @@
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
-      <c r="B27" s="34">
+      <c r="B27" s="32">
         <v>0</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>62</v>
+      <c r="C27" s="33" t="s">
+        <v>61</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="34">
+      <c r="D27" s="34"/>
+      <c r="E27" s="32">
         <v>0</v>
       </c>
-      <c r="F27" s="35" t="s">
-        <v>63</v>
+      <c r="F27" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -13082,18 +13084,18 @@
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
-      <c r="B28" s="34">
+      <c r="B28" s="32">
         <v>1</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>64</v>
+      <c r="C28" s="33" t="s">
+        <v>63</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="34">
+      <c r="D28" s="34"/>
+      <c r="E28" s="32">
         <v>1</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>65</v>
+      <c r="F28" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -13118,18 +13120,18 @@
     </row>
     <row r="29" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
-      <c r="B29" s="34">
+      <c r="B29" s="32">
         <v>2</v>
       </c>
-      <c r="C29" s="35" t="s">
-        <v>66</v>
+      <c r="C29" s="33" t="s">
+        <v>65</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="34">
+      <c r="D29" s="34"/>
+      <c r="E29" s="32">
         <v>2</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>67</v>
+      <c r="F29" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -13154,18 +13156,18 @@
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
-      <c r="B30" s="34">
+      <c r="B30" s="32">
         <v>3</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>68</v>
+      <c r="C30" s="33" t="s">
+        <v>67</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="34">
+      <c r="D30" s="34"/>
+      <c r="E30" s="32">
         <v>3</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>69</v>
+      <c r="F30" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -13190,18 +13192,18 @@
     </row>
     <row r="31" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
-      <c r="B31" s="34">
+      <c r="B31" s="32">
         <v>4</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>70</v>
+      <c r="C31" s="33" t="s">
+        <v>69</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="34">
+      <c r="D31" s="34"/>
+      <c r="E31" s="32">
         <v>4</v>
       </c>
-      <c r="F31" s="49" t="s">
-        <v>71</v>
+      <c r="F31" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -13226,18 +13228,18 @@
     </row>
     <row r="32" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
-      <c r="B32" s="38">
+      <c r="B32" s="36">
         <v>5</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>72</v>
+      <c r="C32" s="37" t="s">
+        <v>71</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="38">
+      <c r="D32" s="34"/>
+      <c r="E32" s="36">
         <v>5</v>
       </c>
-      <c r="F32" s="39" t="s">
-        <v>73</v>
+      <c r="F32" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -13262,11 +13264,11 @@
     </row>
     <row r="33" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -13290,11 +13292,11 @@
     </row>
     <row r="34" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -13318,18 +13320,18 @@
     </row>
     <row r="35" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="42" t="s">
+      <c r="F35" s="46" t="s">
         <v>76</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>77</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -13354,18 +13356,18 @@
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
-      <c r="B36" s="34">
+      <c r="B36" s="32">
         <v>0</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>78</v>
+      <c r="C36" s="33" t="s">
+        <v>77</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="34">
+      <c r="D36" s="34"/>
+      <c r="E36" s="32">
         <v>0</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>79</v>
+      <c r="F36" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -13390,18 +13392,18 @@
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
-      <c r="B37" s="34">
+      <c r="B37" s="32">
         <v>1</v>
       </c>
-      <c r="C37" s="35" t="s">
-        <v>80</v>
+      <c r="C37" s="33" t="s">
+        <v>79</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="34">
+      <c r="D37" s="34"/>
+      <c r="E37" s="32">
         <v>1</v>
       </c>
-      <c r="F37" s="35" t="s">
-        <v>81</v>
+      <c r="F37" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -13426,18 +13428,18 @@
     </row>
     <row r="38" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
-      <c r="B38" s="34">
+      <c r="B38" s="32">
         <v>2</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>82</v>
+      <c r="C38" s="33" t="s">
+        <v>81</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="34">
+      <c r="D38" s="34"/>
+      <c r="E38" s="32">
         <v>2</v>
       </c>
-      <c r="F38" s="35" t="s">
-        <v>83</v>
+      <c r="F38" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -13462,18 +13464,18 @@
     </row>
     <row r="39" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
-      <c r="B39" s="34">
+      <c r="B39" s="32">
         <v>3</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>84</v>
+      <c r="C39" s="33" t="s">
+        <v>83</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="34">
+      <c r="D39" s="34"/>
+      <c r="E39" s="32">
         <v>3</v>
       </c>
-      <c r="F39" s="35" t="s">
-        <v>85</v>
+      <c r="F39" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -13498,18 +13500,18 @@
     </row>
     <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
-      <c r="B40" s="34">
+      <c r="B40" s="32">
         <v>4</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>86</v>
+      <c r="C40" s="33" t="s">
+        <v>85</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="34">
+      <c r="D40" s="34"/>
+      <c r="E40" s="32">
         <v>4</v>
       </c>
-      <c r="F40" s="35" t="s">
-        <v>87</v>
+      <c r="F40" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -13534,18 +13536,18 @@
     </row>
     <row r="41" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
-      <c r="B41" s="38">
+      <c r="B41" s="36">
         <v>5</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>88</v>
+      <c r="C41" s="37" t="s">
+        <v>87</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="38">
+      <c r="D41" s="34"/>
+      <c r="E41" s="36">
         <v>5</v>
       </c>
-      <c r="F41" s="39" t="s">
-        <v>89</v>
+      <c r="F41" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -13570,11 +13572,11 @@
     </row>
     <row r="42" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -13598,11 +13600,11 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -13626,18 +13628,18 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="31" t="s">
+      <c r="F44" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>93</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -13662,18 +13664,18 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
-      <c r="B45" s="34">
+      <c r="B45" s="32">
         <v>0</v>
       </c>
-      <c r="C45" s="35" t="s">
-        <v>94</v>
+      <c r="C45" s="33" t="s">
+        <v>93</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="34">
+      <c r="D45" s="34"/>
+      <c r="E45" s="32">
         <v>0</v>
       </c>
-      <c r="F45" s="35" t="s">
-        <v>95</v>
+      <c r="F45" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -13698,18 +13700,18 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
-      <c r="B46" s="34">
+      <c r="B46" s="32">
         <v>1</v>
       </c>
-      <c r="C46" s="35" t="s">
-        <v>96</v>
+      <c r="C46" s="33" t="s">
+        <v>95</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="34">
+      <c r="D46" s="34"/>
+      <c r="E46" s="32">
         <v>1</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>97</v>
+      <c r="F46" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
@@ -13734,18 +13736,18 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
-      <c r="B47" s="34">
+      <c r="B47" s="32">
         <v>2</v>
       </c>
-      <c r="C47" s="35" t="s">
-        <v>98</v>
+      <c r="C47" s="33" t="s">
+        <v>97</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="34">
+      <c r="D47" s="34"/>
+      <c r="E47" s="32">
         <v>2</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>99</v>
+      <c r="F47" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -13770,18 +13772,18 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
-      <c r="B48" s="34">
+      <c r="B48" s="32">
         <v>3</v>
       </c>
-      <c r="C48" s="35" t="s">
-        <v>100</v>
+      <c r="C48" s="33" t="s">
+        <v>99</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="34">
+      <c r="D48" s="34"/>
+      <c r="E48" s="32">
         <v>3</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>101</v>
+      <c r="F48" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -13806,18 +13808,18 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
-      <c r="B49" s="34">
+      <c r="B49" s="32">
         <v>4</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>102</v>
+      <c r="C49" s="33" t="s">
+        <v>101</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="34">
+      <c r="D49" s="34"/>
+      <c r="E49" s="32">
         <v>4</v>
       </c>
-      <c r="F49" s="35" t="s">
-        <v>103</v>
+      <c r="F49" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -13842,18 +13844,18 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
-      <c r="B50" s="38">
+      <c r="B50" s="36">
         <v>5</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>104</v>
+      <c r="C50" s="37" t="s">
+        <v>103</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="38">
+      <c r="D50" s="34"/>
+      <c r="E50" s="36">
         <v>5</v>
       </c>
-      <c r="F50" s="39" t="s">
-        <v>105</v>
+      <c r="F50" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
@@ -13878,11 +13880,11 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -13906,18 +13908,18 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="D52" s="34"/>
+      <c r="E52" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="31" t="s">
+      <c r="F52" s="30" t="s">
         <v>108</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>109</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -13942,18 +13944,18 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
-      <c r="B53" s="34">
+      <c r="B53" s="32">
         <v>0</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>110</v>
+      <c r="C53" s="33" t="s">
+        <v>109</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="34">
+      <c r="D53" s="34"/>
+      <c r="E53" s="32">
         <v>0</v>
       </c>
-      <c r="F53" s="35" t="s">
-        <v>111</v>
+      <c r="F53" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -13978,18 +13980,18 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
-      <c r="B54" s="34">
+      <c r="B54" s="32">
         <v>1</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>112</v>
+      <c r="C54" s="33" t="s">
+        <v>111</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="34">
+      <c r="D54" s="34"/>
+      <c r="E54" s="32">
         <v>1</v>
       </c>
-      <c r="F54" s="35" t="s">
-        <v>113</v>
+      <c r="F54" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -14014,16 +14016,16 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
-      <c r="B55" s="34">
+      <c r="B55" s="32">
         <v>2</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="34">
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="32">
         <v>2</v>
       </c>
-      <c r="F55" s="35" t="s">
-        <v>114</v>
+      <c r="F55" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
@@ -14048,16 +14050,16 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
-      <c r="B56" s="34">
+      <c r="B56" s="32">
         <v>3</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="34">
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="32">
         <v>3</v>
       </c>
-      <c r="F56" s="35" t="s">
-        <v>115</v>
+      <c r="F56" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
@@ -14082,16 +14084,16 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
-      <c r="B57" s="34">
+      <c r="B57" s="32">
         <v>4</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="34">
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="32">
         <v>4</v>
       </c>
-      <c r="F57" s="35" t="s">
-        <v>116</v>
+      <c r="F57" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
@@ -14116,16 +14118,16 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
-      <c r="B58" s="38">
+      <c r="B58" s="36">
         <v>5</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="38">
+      <c r="C58" s="37"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="36">
         <v>5</v>
       </c>
-      <c r="F58" s="39" t="s">
-        <v>117</v>
+      <c r="F58" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
@@ -14150,11 +14152,11 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="41"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="39"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
@@ -14178,18 +14180,18 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="D60" s="34"/>
+      <c r="E60" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="31" t="s">
+      <c r="F60" s="30" t="s">
         <v>120</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>121</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -14214,17 +14216,17 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
-      <c r="B61" s="34">
+      <c r="B61" s="32">
         <v>0</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>122</v>
+      <c r="C61" s="33" t="s">
+        <v>121</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="34">
+      <c r="D61" s="34"/>
+      <c r="E61" s="32">
         <v>0</v>
       </c>
-      <c r="F61" s="35"/>
+      <c r="F61" s="33"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -14248,17 +14250,17 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
-      <c r="B62" s="34">
+      <c r="B62" s="32">
         <v>1</v>
       </c>
-      <c r="C62" s="35" t="s">
-        <v>123</v>
+      <c r="C62" s="33" t="s">
+        <v>122</v>
       </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="34">
+      <c r="D62" s="34"/>
+      <c r="E62" s="32">
         <v>1</v>
       </c>
-      <c r="F62" s="35"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
@@ -14282,17 +14284,17 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
-      <c r="B63" s="34">
+      <c r="B63" s="32">
         <v>2</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>124</v>
+      <c r="C63" s="33" t="s">
+        <v>123</v>
       </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="34">
+      <c r="D63" s="34"/>
+      <c r="E63" s="32">
         <v>2</v>
       </c>
-      <c r="F63" s="35"/>
+      <c r="F63" s="33"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
@@ -14316,17 +14318,17 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
-      <c r="B64" s="34">
+      <c r="B64" s="32">
         <v>3</v>
       </c>
-      <c r="C64" s="35" t="s">
-        <v>125</v>
+      <c r="C64" s="33" t="s">
+        <v>124</v>
       </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="34">
+      <c r="D64" s="34"/>
+      <c r="E64" s="32">
         <v>3</v>
       </c>
-      <c r="F64" s="35"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
@@ -14350,17 +14352,17 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
-      <c r="B65" s="34">
+      <c r="B65" s="32">
         <v>4</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>126</v>
+      <c r="C65" s="33" t="s">
+        <v>125</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="34">
+      <c r="D65" s="34"/>
+      <c r="E65" s="32">
         <v>4</v>
       </c>
-      <c r="F65" s="35"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
@@ -14384,17 +14386,17 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
-      <c r="B66" s="38">
+      <c r="B66" s="36">
         <v>5</v>
       </c>
-      <c r="C66" s="39" t="s">
-        <v>127</v>
+      <c r="C66" s="37" t="s">
+        <v>126</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="38">
+      <c r="D66" s="34"/>
+      <c r="E66" s="36">
         <v>5</v>
       </c>
-      <c r="F66" s="39"/>
+      <c r="F66" s="37"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
@@ -14418,11 +14420,11 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="39"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
@@ -14446,18 +14448,18 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="D68" s="34"/>
+      <c r="E68" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="31" t="s">
+      <c r="F68" s="30" t="s">
         <v>130</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>131</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
@@ -14482,15 +14484,15 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
-      <c r="B69" s="34">
+      <c r="B69" s="32">
         <v>0</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="34">
+      <c r="C69" s="33"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="32">
         <v>0</v>
       </c>
-      <c r="F69" s="35"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
@@ -14514,15 +14516,15 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
-      <c r="B70" s="34">
+      <c r="B70" s="32">
         <v>1</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="34">
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="32">
         <v>1</v>
       </c>
-      <c r="F70" s="35"/>
+      <c r="F70" s="33"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -14546,15 +14548,15 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
-      <c r="B71" s="34">
+      <c r="B71" s="32">
         <v>2</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="34">
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="32">
         <v>2</v>
       </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
@@ -14578,15 +14580,15 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
-      <c r="B72" s="34">
+      <c r="B72" s="32">
         <v>3</v>
       </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="34">
+      <c r="C72" s="33"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="32">
         <v>3</v>
       </c>
-      <c r="F72" s="35"/>
+      <c r="F72" s="33"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
@@ -14610,15 +14612,15 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14"/>
-      <c r="B73" s="34">
+      <c r="B73" s="32">
         <v>4</v>
       </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="34">
+      <c r="C73" s="33"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="32">
         <v>4</v>
       </c>
-      <c r="F73" s="35"/>
+      <c r="F73" s="33"/>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
@@ -14642,15 +14644,15 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14"/>
-      <c r="B74" s="38">
+      <c r="B74" s="36">
         <v>5</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="38">
+      <c r="C74" s="37"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="36">
         <v>5</v>
       </c>
-      <c r="F74" s="39"/>
+      <c r="F74" s="37"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
@@ -14674,11 +14676,11 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="41"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="39"/>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
@@ -14702,18 +14704,18 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14"/>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="D76" s="34"/>
+      <c r="E76" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="31" t="s">
+      <c r="F76" s="30" t="s">
         <v>134</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -14738,16 +14740,16 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14"/>
-      <c r="B77" s="34">
+      <c r="B77" s="32">
         <v>0</v>
       </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="34">
+      <c r="C77" s="33"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="32">
         <v>0</v>
       </c>
-      <c r="F77" s="35" t="s">
-        <v>136</v>
+      <c r="F77" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
@@ -14772,16 +14774,16 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14"/>
-      <c r="B78" s="34">
+      <c r="B78" s="32">
         <v>1</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="34">
+      <c r="C78" s="33"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="32">
         <v>1</v>
       </c>
-      <c r="F78" s="41" t="s">
-        <v>137</v>
+      <c r="F78" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
@@ -14806,16 +14808,16 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14"/>
-      <c r="B79" s="34">
+      <c r="B79" s="32">
         <v>2</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="34">
+      <c r="C79" s="33"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="32">
         <v>2</v>
       </c>
-      <c r="F79" s="41" t="s">
-        <v>138</v>
+      <c r="F79" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
@@ -14840,16 +14842,16 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
-      <c r="B80" s="34">
+      <c r="B80" s="32">
         <v>3</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="34">
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="32">
         <v>3</v>
       </c>
-      <c r="F80" s="41" t="s">
-        <v>139</v>
+      <c r="F80" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
@@ -14874,16 +14876,16 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14"/>
-      <c r="B81" s="34">
+      <c r="B81" s="32">
         <v>4</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="34">
+      <c r="C81" s="33"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="32">
         <v>4</v>
       </c>
-      <c r="F81" s="41" t="s">
-        <v>140</v>
+      <c r="F81" s="39" t="s">
+        <v>139</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
@@ -14908,15 +14910,15 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14"/>
-      <c r="B82" s="38">
+      <c r="B82" s="36">
         <v>5</v>
       </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="38">
+      <c r="C82" s="37"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="36">
         <v>5</v>
       </c>
-      <c r="F82" s="39"/>
+      <c r="F82" s="37"/>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
@@ -14940,11 +14942,11 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="41"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="39"/>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
@@ -14968,15 +14970,15 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14"/>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D84" s="36"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="41"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="39"/>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
@@ -15000,15 +15002,15 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14"/>
-      <c r="B85" s="34">
+      <c r="B85" s="32">
         <v>0</v>
       </c>
-      <c r="C85" s="35" t="s">
-        <v>143</v>
+      <c r="C85" s="33" t="s">
+        <v>142</v>
       </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="41"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="39"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
@@ -15032,15 +15034,15 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14"/>
-      <c r="B86" s="34">
+      <c r="B86" s="32">
         <v>1</v>
       </c>
-      <c r="C86" s="35" t="s">
-        <v>144</v>
+      <c r="C86" s="33" t="s">
+        <v>143</v>
       </c>
-      <c r="D86" s="36"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="41"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="39"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
@@ -15064,15 +15066,15 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14"/>
-      <c r="B87" s="34">
+      <c r="B87" s="32">
         <v>2</v>
       </c>
-      <c r="C87" s="35" t="s">
-        <v>145</v>
+      <c r="C87" s="33" t="s">
+        <v>144</v>
       </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="41"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="39"/>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
@@ -15096,15 +15098,15 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14"/>
-      <c r="B88" s="34">
+      <c r="B88" s="32">
         <v>3</v>
       </c>
-      <c r="C88" s="35" t="s">
-        <v>146</v>
+      <c r="C88" s="33" t="s">
+        <v>145</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="41"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="39"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
@@ -15128,15 +15130,15 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14"/>
-      <c r="B89" s="34">
+      <c r="B89" s="32">
         <v>4</v>
       </c>
-      <c r="C89" s="35" t="s">
-        <v>147</v>
+      <c r="C89" s="33" t="s">
+        <v>146</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="41"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="39"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
@@ -15160,15 +15162,15 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14"/>
-      <c r="B90" s="38">
+      <c r="B90" s="36">
         <v>5</v>
       </c>
-      <c r="C90" s="39" t="s">
-        <v>148</v>
+      <c r="C90" s="37" t="s">
+        <v>147</v>
       </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="41"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="39"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -40680,8 +40682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B11" sqref="B4:B11"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -40723,15 +40725,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -40815,7 +40817,7 @@
     </row>
     <row r="5" spans="2:26" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
@@ -40846,14 +40848,14 @@
     </row>
     <row r="6" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="1"/>
@@ -40877,15 +40879,15 @@
     </row>
     <row r="7" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9">
         <v>2</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="23" t="s">
-        <v>169</v>
+      <c r="F7" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -40910,15 +40912,15 @@
     </row>
     <row r="8" spans="2:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="13">
         <v>3</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="26" t="s">
-        <v>174</v>
+      <c r="F8" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -40943,15 +40945,15 @@
     </row>
     <row r="9" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="12">
         <v>3</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="24" t="s">
-        <v>175</v>
+      <c r="F9" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -40976,7 +40978,7 @@
     </row>
     <row r="10" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9">
@@ -41007,7 +41009,7 @@
     </row>
     <row r="11" spans="2:26" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11">
@@ -41226,15 +41228,15 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="20" t="s">
-        <v>149</v>
+      <c r="B19" s="50" t="s">
+        <v>148</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -41263,7 +41265,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -41289,18 +41291,18 @@
     </row>
     <row r="21" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="18">
         <v>0</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="50" t="s">
-        <v>170</v>
+      <c r="F21" s="52" t="s">
+        <v>169</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -41322,16 +41324,16 @@
     </row>
     <row r="22" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -41353,16 +41355,16 @@
     </row>
     <row r="23" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11">
         <v>2</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -41384,7 +41386,7 @@
     </row>
     <row r="24" spans="2:26" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="12">
@@ -41392,7 +41394,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="57"/>
@@ -41417,7 +41419,7 @@
     </row>
     <row r="25" spans="2:26" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="12">
@@ -41425,7 +41427,7 @@
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
@@ -41450,14 +41452,14 @@
     </row>
     <row r="26" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="1"/>
@@ -41589,19 +41591,19 @@
     </row>
     <row r="31" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -41626,7 +41628,7 @@
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -41640,8 +41642,8 @@
       <c r="F32" s="18">
         <v>0</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>173</v>
+      <c r="G32" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="1"/>
@@ -41692,22 +41694,22 @@
     </row>
     <row r="34" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
@@ -41731,7 +41733,7 @@
     </row>
     <row r="35" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -47947,8 +47949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -47990,15 +47992,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="20" t="s">
-        <v>160</v>
+      <c r="B2" s="50" t="s">
+        <v>159</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -48027,7 +48029,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -48084,15 +48086,15 @@
     </row>
     <row r="5" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>166</v>
+      <c r="F5" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -48117,14 +48119,14 @@
     </row>
     <row r="6" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="1"/>
@@ -48148,14 +48150,14 @@
     </row>
     <row r="7" spans="2:26" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="1"/>
@@ -48179,15 +48181,15 @@
     </row>
     <row r="8" spans="2:26" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="13">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>167</v>
+      <c r="F8" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -48212,15 +48214,15 @@
     </row>
     <row r="9" spans="2:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12">
         <v>3</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>168</v>
+      <c r="F9" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -48245,7 +48247,7 @@
     </row>
     <row r="10" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -48276,7 +48278,7 @@
     </row>
     <row r="11" spans="2:26" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -48387,15 +48389,15 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="20" t="s">
-        <v>149</v>
+      <c r="B15" s="50" t="s">
+        <v>148</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -48424,7 +48426,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -48450,7 +48452,7 @@
     </row>
     <row r="17" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -48481,7 +48483,7 @@
     </row>
     <row r="18" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -48512,7 +48514,7 @@
     </row>
     <row r="19" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -48543,7 +48545,7 @@
     </row>
     <row r="20" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -48574,15 +48576,15 @@
     </row>
     <row r="21" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12">
         <v>5</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>176</v>
+      <c r="F21" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -48607,15 +48609,15 @@
     </row>
     <row r="22" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13">
         <v>3</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>177</v>
+      <c r="F22" s="24" t="s">
+        <v>176</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -48748,22 +48750,22 @@
     </row>
     <row r="27" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
@@ -48787,7 +48789,7 @@
     </row>
     <row r="28" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
@@ -48880,22 +48882,22 @@
     </row>
     <row r="31" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
@@ -48919,7 +48921,7 @@
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -55133,7 +55135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -55174,15 +55178,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="20" t="s">
-        <v>160</v>
+      <c r="B2" s="50" t="s">
+        <v>159</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -55211,7 +55215,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -55268,7 +55272,7 @@
     </row>
     <row r="5" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -55299,7 +55303,7 @@
     </row>
     <row r="6" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8">
         <v>4</v>
@@ -55330,7 +55334,7 @@
     </row>
     <row r="7" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
@@ -55361,7 +55365,7 @@
     </row>
     <row r="8" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8">
         <v>4</v>
@@ -55392,7 +55396,7 @@
     </row>
     <row r="9" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10">
         <v>5</v>
@@ -55423,7 +55427,7 @@
     </row>
     <row r="10" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -55454,7 +55458,7 @@
     </row>
     <row r="11" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10">
         <v>4</v>
@@ -55565,15 +55569,15 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="20" t="s">
-        <v>149</v>
+      <c r="B15" s="50" t="s">
+        <v>148</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -55602,7 +55606,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -55628,7 +55632,7 @@
     </row>
     <row r="17" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
@@ -55659,7 +55663,7 @@
     </row>
     <row r="18" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="8">
         <v>5</v>
@@ -55690,7 +55694,7 @@
     </row>
     <row r="19" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -55721,7 +55725,7 @@
     </row>
     <row r="20" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -55752,7 +55756,7 @@
     </row>
     <row r="21" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="8">
         <v>3</v>
@@ -55783,7 +55787,7 @@
     </row>
     <row r="22" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -55814,7 +55818,7 @@
     </row>
     <row r="23" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="8">
         <v>3</v>
@@ -55953,19 +55957,19 @@
     </row>
     <row r="28" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -55990,7 +55994,7 @@
     </row>
     <row r="29" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -56048,22 +56052,22 @@
     </row>
     <row r="31" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
@@ -56087,12 +56091,12 @@
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
